--- a/analysis/analysis_data/Продажи.xlsx
+++ b/analysis/analysis_data/Продажи.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet name="Оплата Февраль" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Оплата Февраль" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Оплата Февраль'!$A$1:$AB$863</definedName>
@@ -2141,7 +2141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="I18" s="43" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="J18" s="12" t="n"/>
@@ -14181,8 +14181,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J67" r:id="rId1"/>
-    <hyperlink ref="J68" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="J67" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="J68" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
